--- a/data_2020.xlsx
+++ b/data_2020.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6214B13-CEAD-F74A-837B-2491C1B990DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35225ED4-A436-0D46-97B0-BDAA83748BA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="22900" activeTab="1" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cities" sheetId="1" r:id="rId1"/>
-    <sheet name="Provinces" sheetId="2" r:id="rId2"/>
+    <sheet name="cities" sheetId="1" r:id="rId1"/>
+    <sheet name="provinces" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="374">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -1151,6 +1151,12 @@
   </si>
   <si>
     <t>阿勒泰地区</t>
+  </si>
+  <si>
+    <t>2020-12-31汇率</t>
+  </si>
+  <si>
+    <t>当地货币GDP增值</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1223,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1239,6 +1245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1557,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7202,19 +7211,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E65D0-0A0D-724C-AE36-7A3F5B9BFAA0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="4" width="24.83203125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8"/>
+    <col min="5" max="6" width="24.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7227,8 +7237,14 @@
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>110000</v>
       </c>
@@ -7242,7 +7258,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>120000</v>
       </c>
@@ -7256,7 +7272,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>130000</v>
       </c>
@@ -7270,7 +7286,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>140000</v>
       </c>
@@ -7284,7 +7300,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>150000</v>
       </c>
@@ -7298,7 +7314,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>210000</v>
       </c>
@@ -7312,7 +7328,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>220000</v>
       </c>
@@ -7326,7 +7342,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>230000</v>
       </c>
@@ -7340,7 +7356,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>310000</v>
       </c>
@@ -7354,7 +7370,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>320000</v>
       </c>
@@ -7368,7 +7384,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>330000</v>
       </c>
@@ -7382,7 +7398,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>340000</v>
       </c>
@@ -7396,7 +7412,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>350000</v>
       </c>
@@ -7410,7 +7426,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>360000</v>
       </c>
@@ -7424,7 +7440,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>370000</v>
       </c>
@@ -7662,39 +7678,66 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
+    <row r="33" spans="1:6" s="2" customFormat="1">
       <c r="A33" s="1">
         <v>710000</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <f>E33/F33</f>
+        <v>45982.878336898895</v>
+      </c>
       <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" s="2" customFormat="1">
+      <c r="E33" s="8">
+        <v>197744.77</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.3003999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1">
       <c r="A34" s="1">
         <v>810000</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <f>E34/F34</f>
+        <v>22838.73957367933</v>
+      </c>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1">
+      <c r="E34" s="2">
+        <v>27107.3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.1869000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1">
       <c r="A35" s="1">
         <v>820000</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3">
+        <f>E35/F35</f>
+        <v>1590.6881597250635</v>
+      </c>
       <c r="D35" s="4"/>
+      <c r="E35" s="2">
+        <v>1943.98</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.2221</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A4:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_2020.xlsx
+++ b/data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35225ED4-A436-0D46-97B0-BDAA83748BA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2319BF-4E16-7243-BF0E-12E3268DB715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="22900" activeTab="1" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1920" yWindow="-23200" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="381">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -1157,6 +1157,27 @@
   </si>
   <si>
     <t>当地货币GDP增值</t>
+  </si>
+  <si>
+    <t>行政分区</t>
+  </si>
+  <si>
+    <t>华北地区</t>
+  </si>
+  <si>
+    <t>东北地区</t>
+  </si>
+  <si>
+    <t>华东地区</t>
+  </si>
+  <si>
+    <t>中南地区</t>
+  </si>
+  <si>
+    <t>西南地区</t>
+  </si>
+  <si>
+    <t>西北地区</t>
   </si>
 </sst>
 </file>
@@ -1564,5644 +1585,6658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288:B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="3" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>110000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
         <v>36102.6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>120000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>375</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
         <v>14083.73</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>130100</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>5935.1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>130200</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>7210.9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>130300</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>1685.8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>130400</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>3636.6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>130500</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>2200.4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>130600</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>3353.3</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>130700</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1600.1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>130800</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>1550.3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>130900</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>3699.9</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>131000</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>3301.1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>131100</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>1560.2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>140100</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>4153.32</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>140200</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>1369.9</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>140300</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>742.2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>140400</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>1711.6</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>140500</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>1425.7</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>140600</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>1100.5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>140700</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>1468.8</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>140800</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>1643.6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>140900</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>1034.5999999999999</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>141000</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>1505.2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>141100</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>1538.04</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>150100</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>2800.68</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>150200</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>2787.4</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>150300</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>563.14</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>150400</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>1763.6</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>150500</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>1276.6400000000001</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>150600</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>3533.66</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>150700</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>1172.2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>150800</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3">
         <v>874</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>150900</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>826.9</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>152200</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>547.91999999999996</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>152500</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>839.84</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>152900</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>304.8</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>210100</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>6571.6</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>210200</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>7030.4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>210300</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>1738.78</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>210400</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>827.8</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>210500</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>810.4</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>210600</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>779.4</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>210700</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>1072.2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>210800</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>1325.5</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>210900</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>504.6</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>211000</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>837.7</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>211100</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>1303.5999999999999</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>211200</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>663.1</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>211300</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>875.6</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>211400</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>770.4</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>220100</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <v>6638.03</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>220200</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="4">
+      <c r="E53" s="1"/>
+      <c r="F53" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>220300</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="4">
+      <c r="E54" s="1"/>
+      <c r="F54" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>220400</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="4">
+      <c r="E55" s="1"/>
+      <c r="F55" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>220500</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="4">
+      <c r="E56" s="1"/>
+      <c r="F56" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>220600</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="4">
+      <c r="E57" s="1"/>
+      <c r="F57" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>220700</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="4">
+      <c r="E58" s="1"/>
+      <c r="F58" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>220800</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="4">
+      <c r="E59" s="1"/>
+      <c r="F59" s="4">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>222400</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <v>726.86</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>230100</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>5183.8</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>230200</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>1200.4000000000001</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>230300</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <v>572.4</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>230400</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>230500</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3">
         <v>493.9</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>230600</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>230700</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="3">
+      <c r="E67" s="3">
         <v>295.19</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>230800</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="3">
+      <c r="E68" s="3">
         <v>811.8</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>230900</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>231000</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="3">
+      <c r="E70" s="3">
         <v>831.74</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>231100</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="3">
+      <c r="E71" s="3">
         <v>614.4</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>231200</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>232700</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>310000</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="3">
         <v>38700.58</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>320100</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="3">
+      <c r="E75" s="3">
         <v>14817.95</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>320200</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="3">
+      <c r="E76" s="3">
         <v>12370.48</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>320300</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="3">
+      <c r="E77" s="3">
         <v>7319.77</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>320400</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="3">
+      <c r="E78" s="3">
         <v>7805.3</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>320500</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="3">
         <v>20170.5</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>320600</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="3">
+      <c r="E80" s="3">
         <v>10036.31</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>320700</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="3">
+      <c r="E81" s="3">
         <v>3277.07</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>320800</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="3">
+      <c r="E82" s="3">
         <v>4025.37</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>320900</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D83" s="3">
+      <c r="E83" s="3">
         <v>5953.38</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>321000</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="3">
+      <c r="E84" s="3">
         <v>6048.33</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>321100</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="3">
+      <c r="E85" s="3">
         <v>4220.09</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>321200</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="3">
+      <c r="E86" s="3">
         <v>5312.77</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>321300</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="3">
+      <c r="E87" s="3">
         <v>3262.37</v>
       </c>
-      <c r="E87" s="4">
+      <c r="F87" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>330100</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="3">
+      <c r="E88" s="3">
         <v>16105.83</v>
       </c>
-      <c r="E88" s="4">
+      <c r="F88" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>330200</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="3">
+      <c r="E89" s="3">
         <v>12408.66</v>
       </c>
-      <c r="E89" s="4">
+      <c r="F89" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>330300</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="3">
+      <c r="E90" s="3">
         <v>6870.86</v>
       </c>
-      <c r="E90" s="4">
+      <c r="F90" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>330400</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="3">
+      <c r="E91" s="3">
         <v>5509.52</v>
       </c>
-      <c r="E91" s="4">
+      <c r="F91" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>330500</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="3">
+      <c r="E92" s="3">
         <v>3201.41</v>
       </c>
-      <c r="E92" s="4">
+      <c r="F92" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>330600</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="3">
+      <c r="E93" s="3">
         <v>6000.66</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>330700</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="3">
+      <c r="E94" s="3">
         <v>4703.95</v>
       </c>
-      <c r="E94" s="4">
+      <c r="F94" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>330800</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="3">
+      <c r="E95" s="3">
         <v>1639.12</v>
       </c>
-      <c r="E95" s="4">
+      <c r="F95" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>330900</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D96" s="3">
+      <c r="E96" s="3">
         <v>1512.11</v>
       </c>
-      <c r="E96" s="4">
+      <c r="F96" s="4">
         <v>0.12</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>331000</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="3">
+      <c r="E97" s="3">
         <v>5262.72</v>
       </c>
-      <c r="E97" s="4">
+      <c r="F97" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>331100</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="3">
+      <c r="E98" s="3">
         <v>1540.02</v>
       </c>
-      <c r="E98" s="4">
+      <c r="F98" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>340100</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D99" s="3">
+      <c r="E99" s="3">
         <v>10045.719999999999</v>
       </c>
-      <c r="E99" s="4">
+      <c r="F99" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>340200</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D100" s="3">
+      <c r="E100" s="3">
         <v>3753.02</v>
       </c>
-      <c r="E100" s="4">
+      <c r="F100" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>340300</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="3">
+      <c r="E101" s="3">
         <v>2082.6999999999998</v>
       </c>
-      <c r="E101" s="4">
+      <c r="F101" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>340400</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D102" s="3">
+      <c r="E102" s="3">
         <v>1337.2</v>
       </c>
-      <c r="E102" s="4">
+      <c r="F102" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>340500</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D103" s="3">
+      <c r="E103" s="3">
         <v>2186.9</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>340600</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D104" s="3">
+      <c r="E104" s="3">
         <v>1119.06</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>340700</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D105" s="3">
+      <c r="E105" s="3">
         <v>1003.7</v>
       </c>
-      <c r="E105" s="4">
+      <c r="F105" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>340800</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D106" s="3">
+      <c r="E106" s="3">
         <v>2467.6999999999998</v>
       </c>
-      <c r="E106" s="4">
+      <c r="F106" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>341000</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="3">
+      <c r="E107" s="3">
         <v>850.4</v>
       </c>
-      <c r="E107" s="4">
+      <c r="F107" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>341100</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D108" s="3">
+      <c r="E108" s="3">
         <v>3032.07</v>
       </c>
-      <c r="E108" s="4">
+      <c r="F108" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>341200</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D109" s="3">
+      <c r="E109" s="3">
         <v>2805.2</v>
       </c>
-      <c r="E109" s="4">
+      <c r="F109" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>341300</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D110" s="3">
+      <c r="E110" s="3">
         <v>2044.99</v>
       </c>
-      <c r="E110" s="4">
+      <c r="F110" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>341500</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D111" s="3">
+      <c r="E111" s="3">
         <v>1669.5</v>
       </c>
-      <c r="E111" s="4">
+      <c r="F111" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>341600</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="3">
+      <c r="E112" s="3">
         <v>1806.01</v>
       </c>
-      <c r="E112" s="4">
+      <c r="F112" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>341700</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D113" s="3">
+      <c r="E113" s="3">
         <v>868.9</v>
       </c>
-      <c r="E113" s="4">
+      <c r="F113" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>341800</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="3">
+      <c r="E114" s="3">
         <v>1607.5</v>
       </c>
-      <c r="E114" s="4">
+      <c r="F114" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>350100</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D115" s="3">
+      <c r="E115" s="3">
         <v>10020.02</v>
       </c>
-      <c r="E115" s="4">
+      <c r="F115" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>350200</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D116" s="3">
+      <c r="E116" s="3">
         <v>6384.02</v>
       </c>
-      <c r="E116" s="4">
+      <c r="F116" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>350300</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D117" s="3">
+      <c r="E117" s="3">
         <v>2643.97</v>
       </c>
-      <c r="E117" s="4">
+      <c r="F117" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>350400</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D118" s="3">
+      <c r="E118" s="3">
         <v>2702.19</v>
       </c>
-      <c r="E118" s="4">
+      <c r="F118" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>350500</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D119" s="3">
+      <c r="E119" s="3">
         <v>10158.66</v>
       </c>
-      <c r="E119" s="4">
+      <c r="F119" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>350600</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>350700</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D121" s="3">
+      <c r="E121" s="3">
         <v>2007.4</v>
       </c>
-      <c r="E121" s="4">
+      <c r="F121" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>350800</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D122" s="3">
+      <c r="E122" s="3">
         <v>2870.9</v>
       </c>
-      <c r="E122" s="4">
+      <c r="F122" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>350900</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="3">
+      <c r="E123" s="3">
         <v>2619</v>
       </c>
-      <c r="E123" s="4">
+      <c r="F123" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>360100</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="3">
+      <c r="E124" s="3">
         <v>5745.51</v>
       </c>
-      <c r="E124" s="4">
+      <c r="F124" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>360200</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D125" s="3">
+      <c r="E125" s="3">
         <v>957.14</v>
       </c>
-      <c r="E125" s="4">
+      <c r="F125" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>360300</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D126" s="3">
+      <c r="E126" s="3">
         <v>963.6</v>
       </c>
-      <c r="E126" s="4">
+      <c r="F126" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>360400</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D127" s="3">
+      <c r="E127" s="3">
         <v>3240.5</v>
       </c>
-      <c r="E127" s="4">
+      <c r="F127" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>360500</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="3">
+      <c r="E128" s="3">
         <v>1001.33</v>
       </c>
-      <c r="E128" s="4">
+      <c r="F128" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>360600</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D129" s="3">
+      <c r="E129" s="3">
         <v>982.66</v>
       </c>
-      <c r="E129" s="4">
+      <c r="F129" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>360700</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D130" s="3">
+      <c r="E130" s="3">
         <v>3645.2</v>
       </c>
-      <c r="E130" s="4">
+      <c r="F130" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>360800</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D131" s="3">
+      <c r="E131" s="3">
         <v>2168.83</v>
       </c>
-      <c r="E131" s="4">
+      <c r="F131" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>360900</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D132" s="3">
+      <c r="E132" s="3">
         <v>2789.87</v>
       </c>
-      <c r="E132" s="4">
+      <c r="F132" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>361000</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D133" s="3">
+      <c r="E133" s="3">
         <v>1572.51</v>
       </c>
-      <c r="E133" s="4">
+      <c r="F133" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>361100</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D134" s="3">
+      <c r="E134" s="3">
         <v>2624.34</v>
       </c>
-      <c r="E134" s="4">
+      <c r="F134" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>370100</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D135" s="3">
+      <c r="E135" s="3">
         <v>10140.91</v>
       </c>
-      <c r="E135" s="4">
+      <c r="F135" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>370200</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="3">
+      <c r="E136" s="3">
         <v>12400.56</v>
       </c>
-      <c r="E136" s="4">
+      <c r="F136" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>370300</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D137" s="3">
+      <c r="E137" s="3">
         <v>3673.54</v>
       </c>
-      <c r="E137" s="4">
+      <c r="F137" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>370400</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D138" s="3">
+      <c r="E138" s="3">
         <v>1733.25</v>
       </c>
-      <c r="E138" s="4">
+      <c r="F138" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>370500</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D139" s="3">
+      <c r="E139" s="3">
         <v>2981.19</v>
       </c>
-      <c r="E139" s="4">
+      <c r="F139" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>370600</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D140" s="3">
+      <c r="E140" s="3">
         <v>7816.42</v>
       </c>
-      <c r="E140" s="4">
+      <c r="F140" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>370700</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D141" s="3">
+      <c r="E141" s="3">
         <v>5872.2</v>
       </c>
-      <c r="E141" s="4">
+      <c r="F141" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>370800</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D142" s="3">
+      <c r="E142" s="3">
         <v>4494.3100000000004</v>
       </c>
-      <c r="E142" s="4">
+      <c r="F142" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>370900</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D143" s="3">
+      <c r="E143" s="3">
         <v>2766.5</v>
       </c>
-      <c r="E143" s="4">
+      <c r="F143" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>371000</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D144" s="3">
+      <c r="E144" s="3">
         <v>3017.79</v>
       </c>
-      <c r="E144" s="4">
+      <c r="F144" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>371100</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D145" s="3">
+      <c r="E145" s="3">
         <v>2006.43</v>
       </c>
-      <c r="E145" s="4">
+      <c r="F145" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>371300</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D146" s="3">
+      <c r="E146" s="3">
         <v>4805.25</v>
       </c>
-      <c r="E146" s="4">
+      <c r="F146" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>371400</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D147" s="3">
+      <c r="E147" s="3">
         <v>3078.99</v>
       </c>
-      <c r="E147" s="4">
+      <c r="F147" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>371500</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D148" s="3">
+      <c r="E148" s="3">
         <v>2316.84</v>
       </c>
-      <c r="E148" s="4">
+      <c r="F148" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>371600</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D149" s="3">
+      <c r="E149" s="3">
         <v>2508.11</v>
       </c>
-      <c r="E149" s="4">
+      <c r="F149" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>371700</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D150" s="3">
+      <c r="E150" s="3">
         <v>3483.11</v>
       </c>
-      <c r="E150" s="4">
+      <c r="F150" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>410100</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D151" s="3">
+      <c r="E151" s="3">
         <v>12003.04</v>
       </c>
-      <c r="E151" s="4">
+      <c r="F151" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>410200</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D152" s="3">
+      <c r="E152" s="3">
         <v>2371.83</v>
       </c>
-      <c r="E152" s="4">
+      <c r="F152" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>410300</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D153" s="3">
+      <c r="E153" s="3">
         <v>5128.3599999999997</v>
       </c>
-      <c r="E153" s="4">
+      <c r="F153" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>410400</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D154" s="3">
+      <c r="E154" s="3">
         <v>2455.84</v>
       </c>
-      <c r="E154" s="4">
+      <c r="F154" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>410500</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="3">
+      <c r="E155" s="3">
         <v>2300.48</v>
       </c>
-      <c r="E155" s="4">
+      <c r="F155" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>410600</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D156" s="3">
+      <c r="E156" s="3">
         <v>980.97</v>
       </c>
-      <c r="E156" s="4">
+      <c r="F156" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>410700</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D157" s="3">
+      <c r="E157" s="3">
         <v>3014.51</v>
       </c>
-      <c r="E157" s="4">
+      <c r="F157" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>410800</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D158" s="3">
+      <c r="E158" s="3">
         <v>2123.6</v>
       </c>
-      <c r="E158" s="4">
+      <c r="F158" s="4">
         <v>-0.20599999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>410900</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D159" s="3">
+      <c r="E159" s="3">
         <v>1649.99</v>
       </c>
-      <c r="E159" s="4">
+      <c r="F159" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>411000</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D160" s="3">
+      <c r="E160" s="3">
         <v>3449.23</v>
       </c>
-      <c r="E160" s="4">
+      <c r="F160" s="4">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>411100</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D161" s="3">
+      <c r="E161" s="3">
         <v>1573.88</v>
       </c>
-      <c r="E161" s="4">
+      <c r="F161" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>411200</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D162" s="3">
+      <c r="E162" s="3">
         <v>1450.71</v>
       </c>
-      <c r="E162" s="4">
+      <c r="F162" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>411300</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D163" s="3">
+      <c r="E163" s="3">
         <v>3925.86</v>
       </c>
-      <c r="E163" s="4">
+      <c r="F163" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>411400</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D164" s="3">
+      <c r="E164" s="3">
         <v>2925.33</v>
       </c>
-      <c r="E164" s="4">
+      <c r="F164" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>411500</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D165" s="3">
+      <c r="E165" s="3">
         <v>2805.68</v>
       </c>
-      <c r="E165" s="4">
+      <c r="F165" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>411600</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D166" s="3">
+      <c r="E166" s="3">
         <v>3267.19</v>
       </c>
-      <c r="E166" s="4">
+      <c r="F166" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>411700</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D167" s="3">
+      <c r="E167" s="3">
         <v>2859.27</v>
       </c>
-      <c r="E167" s="4">
+      <c r="F167" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>420100</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D168" s="3">
+      <c r="E168" s="3">
         <v>15616.06</v>
       </c>
-      <c r="E168" s="4">
+      <c r="F168" s="4">
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>420200</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D169" s="3">
+      <c r="E169" s="3">
         <v>1641.32</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>420300</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D170" s="3">
+      <c r="E170" s="3">
         <v>1915.1</v>
       </c>
-      <c r="E170" s="4">
+      <c r="F170" s="4">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>420500</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D171" s="3">
+      <c r="E171" s="3">
         <v>4261.42</v>
       </c>
-      <c r="E171" s="4">
+      <c r="F171" s="4">
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>420600</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D172" s="3">
+      <c r="E172" s="3">
         <v>4601.97</v>
       </c>
-      <c r="E172" s="4">
+      <c r="F172" s="4">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>420700</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D173" s="3">
+      <c r="E173" s="3">
         <v>1005.23</v>
       </c>
-      <c r="E173" s="4">
+      <c r="F173" s="4">
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>420800</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D174" s="3">
+      <c r="E174" s="3">
         <v>1906.41</v>
       </c>
-      <c r="E174" s="4">
+      <c r="F174" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>420900</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D175" s="3">
+      <c r="E175" s="3">
         <v>2193.5500000000002</v>
       </c>
-      <c r="E175" s="4">
+      <c r="F175" s="4">
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>421000</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D176" s="3">
+      <c r="E176" s="3">
         <v>2369.04</v>
       </c>
-      <c r="E176" s="4">
+      <c r="F176" s="4">
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>421100</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D177" s="3">
+      <c r="E177" s="3">
         <v>2169.5500000000002</v>
       </c>
-      <c r="E177" s="4">
+      <c r="F177" s="4">
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>421200</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D178" s="3">
+      <c r="E178" s="3">
         <v>1524.67</v>
       </c>
-      <c r="E178" s="4">
+      <c r="F178" s="4">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>421300</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D179" s="3">
+      <c r="E179" s="3">
         <v>1096.72</v>
       </c>
-      <c r="E179" s="4">
+      <c r="F179" s="4">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>422800</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D180" s="3">
+      <c r="E180" s="3">
         <v>1117.7</v>
       </c>
-      <c r="E180" s="4">
+      <c r="F180" s="4">
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>430100</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D181" s="3">
+      <c r="E181" s="3">
         <v>12142.52</v>
       </c>
-      <c r="E181" s="4">
+      <c r="F181" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>430200</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D182" s="3">
+      <c r="E182" s="3">
         <v>3105.8</v>
       </c>
-      <c r="E182" s="4">
+      <c r="F182" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>430300</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D183" s="3">
+      <c r="E183" s="3">
         <v>2343.1</v>
       </c>
-      <c r="E183" s="4">
+      <c r="F183" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>430400</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D184" s="3">
+      <c r="E184" s="3">
         <v>3508.5</v>
       </c>
-      <c r="E184" s="4">
+      <c r="F184" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>430500</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D185" s="3">
+      <c r="E185" s="3">
         <v>2250.81</v>
       </c>
-      <c r="E185" s="4">
+      <c r="F185" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>430600</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D186" s="3">
+      <c r="E186" s="3">
         <v>4001.55</v>
       </c>
-      <c r="E186" s="4">
+      <c r="F186" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>430700</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D187" s="3">
+      <c r="E187" s="3">
         <v>3749.1</v>
       </c>
-      <c r="E187" s="4">
+      <c r="F187" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>430800</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D188" s="3">
+      <c r="E188" s="3">
         <v>556.67999999999995</v>
       </c>
-      <c r="E188" s="4">
+      <c r="F188" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>430900</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D189" s="3">
+      <c r="E189" s="3">
         <v>1853.48</v>
       </c>
-      <c r="E189" s="4">
+      <c r="F189" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>431000</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D190" s="3">
+      <c r="E190" s="3">
         <v>2503.0700000000002</v>
       </c>
-      <c r="E190" s="4">
+      <c r="F190" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>431100</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D191" s="3">
+      <c r="E191" s="3">
         <v>2107.6999999999998</v>
       </c>
-      <c r="E191" s="4">
+      <c r="F191" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>431200</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D192" s="3">
+      <c r="E192" s="3">
         <v>1671.87</v>
       </c>
-      <c r="E192" s="4">
+      <c r="F192" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>431300</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D193" s="3">
+      <c r="E193" s="3">
         <v>1679.94</v>
       </c>
-      <c r="E193" s="4">
+      <c r="F193" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>433100</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D194" s="3">
+      <c r="E194" s="3">
         <v>725</v>
       </c>
-      <c r="E194" s="4">
+      <c r="F194" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>440100</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D195" s="3">
+      <c r="E195" s="3">
         <v>25019.11</v>
       </c>
-      <c r="E195" s="4">
+      <c r="F195" s="4">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>440200</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D196" s="3">
+      <c r="E196" s="3">
         <v>1353.49</v>
       </c>
-      <c r="E196" s="4">
+      <c r="F196" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>440300</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D197" s="3">
+      <c r="E197" s="3">
         <v>27670.240000000002</v>
       </c>
-      <c r="E197" s="4">
+      <c r="F197" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>440400</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D198" s="3">
+      <c r="E198" s="3">
         <v>3481.94</v>
       </c>
-      <c r="E198" s="4">
+      <c r="F198" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>440500</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D199" s="3">
+      <c r="E199" s="3">
         <v>2730.58</v>
       </c>
-      <c r="E199" s="4">
+      <c r="F199" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>440600</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D200" s="3">
+      <c r="E200" s="3">
         <v>10816.47</v>
       </c>
-      <c r="E200" s="4">
+      <c r="F200" s="4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>440700</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D201" s="3">
+      <c r="E201" s="3">
         <v>3200.95</v>
       </c>
-      <c r="E201" s="4">
+      <c r="F201" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>440800</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D202" s="3">
+      <c r="E202" s="3">
         <v>3100.22</v>
       </c>
-      <c r="E202" s="4">
+      <c r="F202" s="4">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>440900</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D203" s="3">
+      <c r="E203" s="3">
         <v>3279.31</v>
       </c>
-      <c r="E203" s="4">
+      <c r="F203" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>441200</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D204" s="3">
+      <c r="E204" s="3">
         <v>2311.65</v>
       </c>
-      <c r="E204" s="4">
+      <c r="F204" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>441300</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D205" s="3">
+      <c r="E205" s="3">
         <v>4221.79</v>
       </c>
-      <c r="E205" s="4">
+      <c r="F205" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>441400</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D206" s="3">
+      <c r="E206" s="3">
         <v>1207.98</v>
       </c>
-      <c r="E206" s="4">
+      <c r="F206" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>441500</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D207" s="3">
+      <c r="E207" s="3">
         <v>1123.81</v>
       </c>
-      <c r="E207" s="4">
+      <c r="F207" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>441600</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D208" s="3">
+      <c r="E208" s="3">
         <v>1102.74</v>
       </c>
-      <c r="E208" s="4">
+      <c r="F208" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>441700</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D209" s="3">
+      <c r="E209" s="3">
         <v>1360.44</v>
       </c>
-      <c r="E209" s="4">
+      <c r="F209" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>441800</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D210" s="3">
+      <c r="E210" s="3">
         <v>1777.15</v>
       </c>
-      <c r="E210" s="4">
+      <c r="F210" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>441900</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D211" s="3">
+      <c r="E211" s="3">
         <v>9650.19</v>
       </c>
-      <c r="E211" s="4">
+      <c r="F211" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>442000</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D212" s="3">
+      <c r="E212" s="3">
         <v>3151.59</v>
       </c>
-      <c r="E212" s="4">
+      <c r="F212" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>445100</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D213" s="3">
+      <c r="E213" s="3">
         <v>1096.98</v>
       </c>
-      <c r="E213" s="4">
+      <c r="F213" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>445200</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D214" s="3">
+      <c r="E214" s="3">
         <v>2102.14</v>
       </c>
-      <c r="E214" s="4">
+      <c r="F214" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>445300</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D215" s="3">
+      <c r="E215" s="3">
         <v>1002.18</v>
       </c>
-      <c r="E215" s="4">
+      <c r="F215" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>450100</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D216" s="3">
+      <c r="E216" s="3">
         <v>4726.34</v>
       </c>
-      <c r="E216" s="4">
+      <c r="F216" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>450200</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D217" s="3">
+      <c r="E217" s="3">
         <v>3176.9</v>
       </c>
-      <c r="E217" s="4">
+      <c r="F217" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>450300</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D218" s="3">
+      <c r="E218" s="3">
         <v>2130.41</v>
       </c>
-      <c r="E218" s="4">
+      <c r="F218" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>450400</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D219" s="3">
+      <c r="E219" s="3">
         <v>1081.3399999999999</v>
       </c>
-      <c r="E219" s="4">
+      <c r="F219" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>450500</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D220" s="3">
+      <c r="E220" s="3">
         <v>1276.9100000000001</v>
       </c>
-      <c r="E220" s="4">
+      <c r="F220" s="4">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>450600</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D221" s="3">
+      <c r="E221" s="3">
         <v>732.81</v>
       </c>
-      <c r="E221" s="4">
+      <c r="F221" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>450700</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D222" s="3">
+      <c r="E222" s="3">
         <v>1388</v>
       </c>
-      <c r="E222" s="4">
+      <c r="F222" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>450800</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D223" s="3">
+      <c r="E223" s="3">
         <v>1352.73</v>
       </c>
-      <c r="E223" s="4">
+      <c r="F223" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>450900</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D224" s="3">
+      <c r="E224" s="3">
         <v>1761.08</v>
       </c>
-      <c r="E224" s="4">
+      <c r="F224" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>451000</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D225" s="3">
+      <c r="E225" s="3">
         <v>1333.73</v>
       </c>
-      <c r="E225" s="4">
+      <c r="F225" s="4">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>451100</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D226" s="3">
+      <c r="E226" s="3">
         <v>753.95</v>
       </c>
-      <c r="E226" s="4">
+      <c r="F226" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>451200</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D227" s="3">
+      <c r="E227" s="3">
         <v>927.71</v>
       </c>
-      <c r="E227" s="4">
+      <c r="F227" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>451300</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D228" s="3">
+      <c r="E228" s="3">
         <v>705.72</v>
       </c>
-      <c r="E228" s="4">
+      <c r="F228" s="4">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>451400</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D229" s="3">
+      <c r="E229" s="3">
         <v>809</v>
       </c>
-      <c r="E229" s="4">
+      <c r="F229" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>460100</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D230" s="3">
+      <c r="E230" s="3">
         <v>1791.58</v>
       </c>
-      <c r="E230" s="4">
+      <c r="F230" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>460200</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D231" s="3">
+      <c r="E231" s="3">
         <v>695.41</v>
       </c>
-      <c r="E231" s="4">
+      <c r="F231" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>460300</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>460400</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D233" s="3">
+      <c r="E233" s="3">
         <v>639</v>
       </c>
-      <c r="E233" s="4">
+      <c r="F233" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>500000</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E234" s="3">
         <v>25002.79</v>
       </c>
-      <c r="E234" s="4">
+      <c r="F234" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>510100</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D235" s="3">
+      <c r="E235" s="3">
         <v>17716.68</v>
       </c>
-      <c r="E235" s="4">
+      <c r="F235" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>510300</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D236" s="3">
+      <c r="E236" s="3">
         <v>1458.44</v>
       </c>
-      <c r="E236" s="4">
+      <c r="F236" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>510400</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D237" s="3">
+      <c r="E237" s="3">
         <v>1040.82</v>
       </c>
-      <c r="E237" s="4">
+      <c r="F237" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>510500</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D238" s="3">
+      <c r="E238" s="3">
         <v>2157.1999999999998</v>
       </c>
-      <c r="E238" s="4">
+      <c r="F238" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>510600</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D239" s="3">
+      <c r="E239" s="3">
         <v>2404.13</v>
       </c>
-      <c r="E239" s="4">
+      <c r="F239" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>510700</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D240" s="3">
+      <c r="E240" s="3">
         <v>3010.08</v>
       </c>
-      <c r="E240" s="4">
+      <c r="F240" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>510800</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D241" s="3">
+      <c r="E241" s="3">
         <v>1008.01</v>
       </c>
-      <c r="E241" s="4">
+      <c r="F241" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>510900</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D242" s="3">
+      <c r="E242" s="3">
         <v>1403.18</v>
       </c>
-      <c r="E242" s="4">
+      <c r="F242" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>511000</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D243" s="3">
+      <c r="E243" s="3">
         <v>1465.88</v>
       </c>
-      <c r="E243" s="4">
+      <c r="F243" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>511100</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D244" s="3">
+      <c r="E244" s="3">
         <v>2003.42</v>
       </c>
-      <c r="E244" s="4">
+      <c r="F244" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>511300</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D245" s="3">
+      <c r="E245" s="3">
         <v>2401.08</v>
       </c>
-      <c r="E245" s="4">
+      <c r="F245" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>511400</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D246" s="3">
+      <c r="E246" s="3">
         <v>1423.74</v>
       </c>
-      <c r="E246" s="4">
+      <c r="F246" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>511500</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D247" s="3">
+      <c r="E247" s="3">
         <v>2802.12</v>
       </c>
-      <c r="E247" s="4">
+      <c r="F247" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>511600</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D248" s="3">
+      <c r="E248" s="3">
         <v>1301.5999999999999</v>
       </c>
-      <c r="E248" s="4">
+      <c r="F248" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>511700</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D249" s="3">
+      <c r="E249" s="3">
         <v>2118</v>
       </c>
-      <c r="E249" s="4">
+      <c r="F249" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>511800</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D250" s="3">
+      <c r="E250" s="3">
         <v>754.59</v>
       </c>
-      <c r="E250" s="4">
+      <c r="F250" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>511900</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D251" s="3">
+      <c r="E251" s="3">
         <v>766.99</v>
       </c>
-      <c r="E251" s="4">
+      <c r="F251" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>512000</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D252" s="3">
+      <c r="E252" s="3">
         <v>807.5</v>
       </c>
-      <c r="E252" s="4">
+      <c r="F252" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>513200</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D253" s="3">
+      <c r="E253" s="3">
         <v>411.75</v>
       </c>
-      <c r="E253" s="4">
+      <c r="F253" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>513300</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D254" s="3">
+      <c r="E254" s="3">
         <v>410.61</v>
       </c>
-      <c r="E254" s="4">
+      <c r="F254" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>513400</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D255" s="3">
+      <c r="E255" s="3">
         <v>1733.15</v>
       </c>
-      <c r="E255" s="4">
+      <c r="F255" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>520100</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D256" s="3">
+      <c r="E256" s="3">
         <v>4311.6499999999996</v>
       </c>
-      <c r="E256" s="4">
+      <c r="F256" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>520200</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D257" s="3">
+      <c r="E257" s="3">
         <v>1339.62</v>
       </c>
-      <c r="E257" s="4">
+      <c r="F257" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>520300</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D258" s="3">
+      <c r="E258" s="3">
         <v>3720.05</v>
       </c>
-      <c r="E258" s="4">
+      <c r="F258" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>520400</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D259" s="3">
+      <c r="E259" s="3">
         <v>966.74</v>
       </c>
-      <c r="E259" s="4">
+      <c r="F259" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>520500</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D260" s="3">
+      <c r="E260" s="3">
         <v>2020.39</v>
       </c>
-      <c r="E260" s="4">
+      <c r="F260" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>520600</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D261" s="3">
+      <c r="E261" s="3">
         <v>1327.79</v>
       </c>
-      <c r="E261" s="4">
+      <c r="F261" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>522300</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D262" s="3">
+      <c r="E262" s="3">
         <v>1353.4</v>
       </c>
-      <c r="E262" s="4">
+      <c r="F262" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>522600</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D263" s="3">
+      <c r="E263" s="3">
         <v>1191.52</v>
       </c>
-      <c r="E263" s="4">
+      <c r="F263" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>522700</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D264" s="3">
+      <c r="E264" s="3">
         <v>1595.4</v>
       </c>
-      <c r="E264" s="4">
+      <c r="F264" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>530100</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D265" s="3">
+      <c r="E265" s="3">
         <v>6733.79</v>
       </c>
-      <c r="E265" s="4">
+      <c r="F265" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>530300</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D266" s="3">
+      <c r="E266" s="3">
         <v>2959.35</v>
       </c>
-      <c r="E266" s="4">
+      <c r="F266" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>530400</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D267" s="3">
+      <c r="E267" s="3">
         <v>2058.14</v>
       </c>
-      <c r="E267" s="4">
+      <c r="F267" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>530500</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D268" s="3">
+      <c r="E268" s="3">
         <v>1052.58</v>
       </c>
-      <c r="E268" s="4">
+      <c r="F268" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>530600</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D269" s="3">
+      <c r="E269" s="3">
         <v>1288.74</v>
       </c>
-      <c r="E269" s="4">
+      <c r="F269" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>530700</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D270" s="3">
+      <c r="E270" s="3">
         <v>521.75</v>
       </c>
-      <c r="E270" s="4">
+      <c r="F270" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>530800</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D271" s="3">
+      <c r="E271" s="3">
         <v>945.42</v>
       </c>
-      <c r="E271" s="4">
+      <c r="F271" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>530900</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D272" s="3">
+      <c r="E272" s="3">
         <v>821.32</v>
       </c>
-      <c r="E272" s="4">
+      <c r="F272" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>532300</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D273" s="3">
+      <c r="E273" s="3">
         <v>1372.16</v>
       </c>
-      <c r="E273" s="4">
+      <c r="F273" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>532500</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D274" s="3">
+      <c r="E274" s="3">
         <v>2417.4699999999998</v>
       </c>
-      <c r="E274" s="4">
+      <c r="F274" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>532600</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D275" s="3">
+      <c r="E275" s="3">
         <v>1185.1199999999999</v>
       </c>
-      <c r="E275" s="4">
+      <c r="F275" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>532800</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D276" s="3">
+      <c r="E276" s="3">
         <v>604.17999999999995</v>
       </c>
-      <c r="E276" s="4">
+      <c r="F276" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>532900</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D277" s="3">
+      <c r="E277" s="3">
         <v>1484.04</v>
       </c>
-      <c r="E277" s="4">
+      <c r="F277" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>533100</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D278" s="3">
+      <c r="E278" s="3">
         <v>575.54</v>
       </c>
-      <c r="E278" s="4">
+      <c r="F278" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>533300</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D279" s="3">
+      <c r="E279" s="3">
         <v>210.73</v>
       </c>
-      <c r="E279" s="4">
+      <c r="F279" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>533400</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D280" s="3">
+      <c r="E280" s="3">
         <v>266.94</v>
       </c>
-      <c r="E280" s="4">
+      <c r="F280" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>540100</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>540200</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>540300</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>540400</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>540500</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>540600</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>542500</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>610100</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D288" s="3">
+      <c r="E288" s="3">
         <v>10020.39</v>
       </c>
-      <c r="E288" s="4">
+      <c r="F288" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>610200</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D289" s="3">
+      <c r="E289" s="3">
         <v>381.75</v>
       </c>
-      <c r="E289" s="4">
+      <c r="F289" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>610300</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D290" s="3">
+      <c r="E290" s="3">
         <v>2276.9499999999998</v>
       </c>
-      <c r="E290" s="4">
+      <c r="F290" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>610400</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D291" s="3">
+      <c r="E291" s="3">
         <v>2204.81</v>
       </c>
-      <c r="E291" s="4">
+      <c r="F291" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>610500</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D292" s="3">
+      <c r="E292" s="3">
         <v>1866.27</v>
       </c>
-      <c r="E292" s="4">
+      <c r="F292" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>610600</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D293" s="3">
+      <c r="E293" s="3">
         <v>1601.48</v>
       </c>
-      <c r="E293" s="4">
+      <c r="F293" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>610700</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D294" s="3">
+      <c r="E294" s="3">
         <v>1593.4</v>
       </c>
-      <c r="E294" s="4">
+      <c r="F294" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>610800</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D295" s="3">
+      <c r="E295" s="3">
         <v>4089.66</v>
       </c>
-      <c r="E295" s="4">
+      <c r="F295" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>610900</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D296" s="3">
+      <c r="E296" s="3">
         <v>1088.78</v>
       </c>
-      <c r="E296" s="4">
+      <c r="F296" s="4">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>611000</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D297" s="3">
+      <c r="E297" s="3">
         <v>739.46</v>
       </c>
-      <c r="E297" s="4">
+      <c r="F297" s="4">
         <v>-0.112</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>620100</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D298" s="3">
+      <c r="E298" s="3">
         <v>2886.74</v>
       </c>
-      <c r="E298" s="4">
+      <c r="F298" s="4">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>620200</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D299" s="3">
+      <c r="E299" s="3">
         <v>281.60000000000002</v>
       </c>
-      <c r="E299" s="4">
+      <c r="F299" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>620300</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D300" s="3">
+      <c r="E300" s="3">
         <v>358.62</v>
       </c>
-      <c r="E300" s="4">
+      <c r="F300" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>620400</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D301" s="3">
+      <c r="E301" s="3">
         <v>497.27</v>
       </c>
-      <c r="E301" s="4">
+      <c r="F301" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>620500</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D302" s="3">
+      <c r="E302" s="3">
         <v>666.9</v>
       </c>
-      <c r="E302" s="4">
+      <c r="F302" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>620600</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D303" s="3">
+      <c r="E303" s="3">
         <v>526.41</v>
       </c>
-      <c r="E303" s="4">
+      <c r="F303" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>620700</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D304" s="3">
+      <c r="E304" s="3">
         <v>467.05</v>
       </c>
-      <c r="E304" s="4">
+      <c r="F304" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>620800</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D305" s="3">
+      <c r="E305" s="3">
         <v>476.16</v>
       </c>
-      <c r="E305" s="4">
+      <c r="F305" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>620900</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D306" s="3">
+      <c r="E306" s="3">
         <v>657.7</v>
       </c>
-      <c r="E306" s="4">
+      <c r="F306" s="4">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>621000</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D307" s="3">
+      <c r="E307" s="3">
         <v>754.73</v>
       </c>
-      <c r="E307" s="4">
+      <c r="F307" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>621100</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D308" s="3">
+      <c r="E308" s="3">
         <v>441.36</v>
       </c>
-      <c r="E308" s="4">
+      <c r="F308" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>621200</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D309" s="3">
+      <c r="E309" s="3">
         <v>451.8</v>
       </c>
-      <c r="E309" s="4">
+      <c r="F309" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>622900</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D310" s="3">
+      <c r="E310" s="3">
         <v>331.3</v>
       </c>
-      <c r="E310" s="4">
+      <c r="F310" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>623000</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D311" s="3">
+      <c r="E311" s="3">
         <v>219.06</v>
       </c>
-      <c r="E311" s="4">
+      <c r="F311" s="4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>630100</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D312" s="3">
+      <c r="E312" s="3">
         <v>1732.98</v>
       </c>
-      <c r="E312" s="4">
+      <c r="F312" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>630200</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D313" s="3">
+      <c r="E313" s="3">
         <v>514.6</v>
       </c>
-      <c r="E313" s="4">
+      <c r="F313" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>632200</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D314" s="3">
+      <c r="E314" s="3">
         <v>95.09</v>
       </c>
-      <c r="E314" s="4">
+      <c r="F314" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>632300</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D315" s="3">
+      <c r="E315" s="3">
         <v>109.39</v>
       </c>
-      <c r="E315" s="4">
+      <c r="F315" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>632500</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>632600</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>632700</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>632800</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>640100</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D320" s="3">
+      <c r="E320" s="3">
         <v>1964.37</v>
       </c>
-      <c r="E320" s="4">
+      <c r="F320" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>640200</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D321" s="3">
+      <c r="E321" s="3">
         <v>541.62</v>
       </c>
-      <c r="E321" s="4">
+      <c r="F321" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>640300</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D322" s="3">
+      <c r="E322" s="3">
         <v>621.77</v>
       </c>
-      <c r="E322" s="4">
+      <c r="F322" s="4">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>640400</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D323" s="3">
+      <c r="E323" s="3">
         <v>352.46</v>
       </c>
-      <c r="E323" s="4">
+      <c r="F323" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>640500</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D324" s="3">
+      <c r="E324" s="3">
         <v>440.32</v>
       </c>
-      <c r="E324" s="4">
+      <c r="F324" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>650100</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D325" s="3">
+      <c r="E325" s="3">
         <v>3337.32</v>
       </c>
-      <c r="E325" s="4">
+      <c r="F325" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <v>650200</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D326" s="3">
+      <c r="E326" s="3">
         <v>886.9</v>
       </c>
-      <c r="E326" s="4">
+      <c r="F326" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <v>650400</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D327" s="3">
+      <c r="E327" s="3">
         <v>373.41</v>
       </c>
-      <c r="E327" s="4">
+      <c r="F327" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <v>650500</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D328" s="3">
+      <c r="E328" s="3">
         <v>607.91</v>
       </c>
-      <c r="E328" s="4">
+      <c r="F328" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <v>652300</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D329" s="3">
+      <c r="E329" s="3">
         <v>1387.25</v>
       </c>
-      <c r="E329" s="4">
+      <c r="F329" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <v>652700</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D330" s="3">
+      <c r="E330" s="3">
         <v>377.14</v>
       </c>
-      <c r="E330" s="4">
+      <c r="F330" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <v>652800</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D331" s="3">
+      <c r="E331" s="3">
         <v>1106.29</v>
       </c>
-      <c r="E331" s="4">
+      <c r="F331" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <v>652900</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D332" s="3">
+      <c r="E332" s="3">
         <v>1315.05</v>
       </c>
-      <c r="E332" s="4">
+      <c r="F332" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <v>653000</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D333" s="3">
+      <c r="E333" s="3">
         <v>169.24</v>
       </c>
-      <c r="E333" s="4">
+      <c r="F333" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <v>653100</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D334" s="3">
+      <c r="E334" s="3">
         <v>1130.22</v>
       </c>
-      <c r="E334" s="4">
+      <c r="F334" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <v>653200</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D335" s="3">
+      <c r="E335" s="3">
         <v>406.32</v>
       </c>
-      <c r="E335" s="4">
+      <c r="F335" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <v>654000</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D336" s="3">
+      <c r="E336" s="3">
         <v>1266.01</v>
       </c>
-      <c r="E336" s="4">
+      <c r="F336" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>654200</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D337" s="3">
+      <c r="E337" s="3">
         <v>737.57</v>
       </c>
-      <c r="E337" s="4">
+      <c r="F337" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>654300</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D338" s="3">
+      <c r="E338" s="3">
         <v>334.53</v>
       </c>
-      <c r="E338" s="4">
+      <c r="F338" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E369">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F369">
     <sortCondition ref="A1:A369"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7213,7 +8248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E65D0-0A0D-724C-AE36-7A3F5B9BFAA0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/data_2020.xlsx
+++ b/data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2319BF-4E16-7243-BF0E-12E3268DB715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D53BED-BC86-094C-B3AA-AFABCBD261CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="-23200" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288:B338"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -8248,7 +8248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E65D0-0A0D-724C-AE36-7A3F5B9BFAA0}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/data_2020.xlsx
+++ b/data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D53BED-BC86-094C-B3AA-AFABCBD261CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535CF01B-D90D-3543-810C-BC5FA9137185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="-23200" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1920" yWindow="-23220" windowWidth="27800" windowHeight="22900" activeTab="1" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="381">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -1587,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
@@ -8246,532 +8246,637 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E65D0-0A0D-724C-AE36-7A3F5B9BFAA0}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="4" width="24.83203125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="5" width="24.83203125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>110000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>36102.6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>120000</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>14083.73</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>130000</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>36206.9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>140000</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>17651.93</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>150000</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>17359.8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>210000</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>25115</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>220000</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>12311.32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>230000</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>13698.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>310000</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>38700.58</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>320000</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>102718.98</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>330000</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>64613.34</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>340000</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>38680.6</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>350000</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>43903.89</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>360000</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>25691.5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>370000</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>73129</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>410000</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>54997.07</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>420000</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>43443.46</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>430000</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>41781.49</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>440000</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>110760.94</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>450000</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>22156.69</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>460000</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>5532.39</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>500000</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>25002.79</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>510000</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>48598.76</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>520000</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>17826.560000000001</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>530000</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>24521.9</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>540000</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>1902.74</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>610000</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>26181.86</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>620000</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>9016.7000000000007</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>630000</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>3005.92</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>640000</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>3920.55</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1">
+    <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="1">
         <v>650000</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>13797.58</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1">
+    <row r="33" spans="1:7" s="2" customFormat="1">
       <c r="A33" s="1">
         <v>710000</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C33" s="3">
-        <f>E33/F33</f>
+      <c r="D33" s="3">
+        <f>F33/G33</f>
         <v>45982.878336898895</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8">
+      <c r="E33" s="4"/>
+      <c r="F33" s="8">
         <v>197744.77</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>4.3003999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
+    <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="1">
         <v>810000</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C34" s="3">
-        <f>E34/F34</f>
+      <c r="D34" s="3">
+        <f>F34/G34</f>
         <v>22838.73957367933</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2">
+      <c r="E34" s="4"/>
+      <c r="F34" s="2">
         <v>27107.3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>1.1869000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1">
+    <row r="35" spans="1:7" s="2" customFormat="1">
       <c r="A35" s="1">
         <v>820000</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C35" s="3">
-        <f>E35/F35</f>
+      <c r="D35" s="3">
+        <f>F35/G35</f>
         <v>1590.6881597250635</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2">
+      <c r="E35" s="4"/>
+      <c r="F35" s="2">
         <v>1943.98</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>1.2221</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition ref="A4:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
